--- a/EmergencyPlan.xlsx
+++ b/EmergencyPlan.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,34 +573,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2帝斯曼应急预案.pdf</t>
+          <t>1. 帝人化成复合塑料（上海）有限公司突发环境事件应急预案_备案稿.pdf</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>c0065343-644f-4402-84a1-f7ab070e58d7</t>
+          <t>e2697b25-ccbe-4d71-a6ec-72f06c3a855c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1. 帝人化成复合塑料（上海）有限公司突发环境事件应急预案_备案稿.pdf</t>
+          <t>2帝斯曼应急预案.pdf</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>e2697b25-ccbe-4d71-a6ec-72f06c3a855c</t>
+          <t>c0065343-644f-4402-84a1-f7ab070e58d7</t>
         </is>
       </c>
     </row>
@@ -811,34 +811,34 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>201903001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>福耀集团（上海）汽车玻璃有限公司应急预案报告.pdf</t>
+          <t>环境应急预案（5.21）.pdf</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ff839fda-fe89-4311-ba2c-8e92562b7e8c</t>
+          <t>5161bf56-beac-4cc3-afbe-68a20fbbf440</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>201903001</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>环境应急预案（5.21）.pdf</t>
+          <t>福耀集团（上海）汽车玻璃有限公司应急预案报告.pdf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5161bf56-beac-4cc3-afbe-68a20fbbf440</t>
+          <t>ff839fda-fe89-4311-ba2c-8e92562b7e8c</t>
         </is>
       </c>
     </row>
@@ -2743,6 +2743,6262 @@
       <c r="C136" t="inlineStr">
         <is>
           <t>31e5d9ed-c257-425a-93c5-c0bed5a4eca0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>龙工（上海）路面机械制造有限公司发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>840a074b-68a8-4707-9e51-670da40a316e</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>龙工（上海）挖掘机制造有限公司发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>aa8f1ae0-53ac-4596-98ad-3b71da718b88</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>201902183</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>突发环境事件专项应急预案-龙工（上海）液压有限公司.pdf</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2d6b5916-b9a3-49ab-8b29-d34f332cb2e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2-路博润特种化工制造（上海）有限公司突发环境事件综合应急预案- final.pdf</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>8d853cb9-7287-4deb-9581-d6ca63ecfd31</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1713</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>罗托克环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3da7b35e-04e8-479c-a20e-714f411947a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>环境应急预案 【麦格纳汽车镜像（上海）有限公司】.pdf</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ab588169-4572-44f3-8518-5b29510d9a7a</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>201902097</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>a536964e-a861-424c-baf6-3baf9509c839</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>201902097</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>应急预案2019.pdf</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2cab1451-8007-4d20-b389-61f0d3ae403f</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>201902072</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1、风险评估.pdf</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>b9c7cef7-8173-46b7-a375-f51bd5253f58</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>201902072</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2、应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>063289e0-28d4-4b7f-8744-6fa8c9053d93</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>5607c2bb-ef0f-4160-a336-38049969b9f4</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>茂英电子（上海）有限公司  突发环境事件应急预案1.pdf</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>7e10b6c5-af5b-4be0-9154-146445288a7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>20180427103626901.pdf</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>cb5cfb4f-5c9d-424a-844b-01492e8312b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>20180427103702032.pdf</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>eada2e70-bb90-4e4e-a46b-137f32d10908</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>20180427103841822.pdf</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>cb9224a7-45f6-40f5-b1c2-ecfa17b5a733</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>20180427103735129.pdf</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>f3c6498b-7a3f-48d8-906f-c8b9ed63e387</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2-1 美凯威奇（上海）新材料科技有限公司突发环境事件综合应急预案&amp;现场处置预案（含岗位操作卡） - 公示.pdf</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>64d91f72-578b-46a4-9581-bf121f878313</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002美寿满留-应急预案（综合）.pdf</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0082fe20-c16d-4c3a-9553-b55f7b79300f</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>明尼苏达矿业制造特殊材料（上海）有限公司综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>c79c276d-d96b-42c5-9b83-f7d4ac8ee8a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2018明尼苏达矿业制造特殊材料（上海）有限公司环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>06141cd4-63f6-4385-8862-236e52e7da1f</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>3M金山突发环境事件综合应急预案-2019.pdf</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>7b082f3f-bea6-4266-85df-40ef59c5f494</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>3M金山突发环境事件风险评估报告-2019.pdf</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1c2a2ba4-5441-40f6-9c8a-e543be440f3f</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>3M金山工厂综合应急预案 2020.pdf</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>20e59756-09f1-41b4-8f41-a5ff06733c68</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>3M金山工厂环境风险评估报告 2020.pdf</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>091d593a-c956-46db-b65a-d9807bda4b09</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>明尼苏达环境应急预案备案回执2020.pdf</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>9f425aaa-c8de-4612-a90d-288799a78286</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>201902098</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2美卓突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0a55a33e-2d5e-4579-a7ce-864173ea7330</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>201902098</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1美卓风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>492f2e35-6186-420d-92b5-e7a3de12201e</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001三墩发黑风险评估报告评审修改稿（20171116）.pdf</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>7dd8621d-0b03-4b38-8388-cb040eb966f5</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002三墩发黑综合环境预案送审稿（20170911）.pdf</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>f95af81a-99fa-4229-8afb-c2aded786f80</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003三墩发黑废水处理现场应急处置预案（20170911）.pdf</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>fa8500a7-1b6f-4867-a694-9b178aa36711</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004三墩发黑废气处理现场应急处置预案（20170920）.pdf</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>36af7277-3a2f-495a-b98f-06b45a5c3ae9</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>005三墩发黑生产线现场应急处置预案送审稿（20170920）.pdf</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>594a8476-d59c-4e89-bf25-c4159c3fb396</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>006三墩发黑盐酸运输突事件场处置预案（20170920）.pdf</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>e245f1c9-2a08-4e4a-820b-04541af91e32</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007三墩发黑危废库现场处置预案（20170920）.pdf</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3e33a1d4-79a9-4b8b-93c0-7e9a013d2e13</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008三墩发黑化学品库现场处置预案（20170920）.pdf</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0476c14a-aa9d-4f23-87d8-0c231f62533b</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009三墩发黑企业环境风险信息调查表送审稿（20170424）.pdf</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>6bd6a68c-26fa-4017-9ec2-a2b4daea6b0b</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010三墩发黑环境应急资源调查表.pdf</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>62c24b75-c2bc-466e-8da3-03c524ecb3df</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011三墩发黑应急资源调查报告送审稿（20170620）.pdf</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>94ef643b-c700-4f2f-a034-0f2132728658</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>012三墩发黑突发环境事件应急预案编制说明.pdf</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>c8d5be83-7069-49f5-a01c-b4a3f1d8a0d7</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>南极光新材料突发环境事件应急预案v3.pdf</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>d6cdaf92-9a51-49f1-b17b-da0c1307b625</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>NY-AGD-041 生产安全事故综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>7829d322-a64c-4478-b736-b42ff2699df1</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>NY-AGD-035食物中毒应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>96940afb-cafd-4a5e-9f4e-e3456de01b00</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>NY-AGD-005危险化学品泄露应急预案及处理.pdf</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>63b82d0b-0050-4c98-8f78-b5b7f12b087c</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>NY-AGD-024 防汛防台应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>a8688aab-3441-40ca-afc1-23eb415fa338</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2、南亚-环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>5d37a6c9-bb70-44a2-ab97-e3c9860b9110</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>3、南亚-风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>e3bf13a4-8eb2-4365-bf3e-d7a9bdcbf3cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>a43453c3-2455-4a7c-8427-5d2bb937980b</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>尼普洛（上海）有限公司环境【综合】应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>73c6f175-6f8b-44d5-9555-e23e06465972</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1-突发环境事件应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>a9b83d14-4863-4b0a-8f34-5f92c306945b</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2-1环境应急预案编制说明.pdf</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>4577aa81-ea89-4f62-8a12-e5e040b7119c</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2-2环境应急预案（综合）.pdf</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>cd5e4476-030b-4710-ae02-399136baad4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>3-环境风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>f7d4720b-42e2-4726-923e-f8cc6d1cec07</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>5-环境应急预案评审意见.pdf</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>c70d7b83-830d-481f-867a-f65f939b298e</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>4-环境应急资源调查报告.pdf</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>a1079bf1-9489-4fa7-81be-766834ffb1a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>201902099</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2.欧姆龙(上海)有限公司突发环境事件综合应急预案（正式版）.pdf</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>89843805-2afc-4f20-8997-10b6e2fce0e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>201902099</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>FY20 突发环境事件应急预案备案登记表.pdf</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>9ae2876e-d387-466d-ae16-77c93cddd558</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>151117 环境事件应急预案备案回执.pdf</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>8213fc36-4e1b-4a7a-b979-09c0a7005569</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1723</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>欧瑞康应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>f7939cb4-eaac-49e8-b270-6bfe18c0a200</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>庞贝捷涂料（上海）有限公司环境综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>091bf1e4-c2cc-4b37-ba0c-e5d918862e2b</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>环境污染事故应急救援预案.pdf</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2fc0f555-b9c6-4814-94b5-80141b530102</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>201902207</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>佩特专项报告内置突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>60f562a0-849c-427b-af60-a3707bc01614</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>6d3ad2cb-a3b6-4c47-a63f-6eab653b419e</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>202004008</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2-奇华顿日用香精香料（上海）有限公司突发环境事件应急预案备案稿20190731.pdf</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>932b9d6a-8dc3-419c-a991-70c279407091</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>202001003</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2-奇华顿食用香精香料（上海）有限公司突发环境污染事故应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>bff567fd-59fc-4c44-84d0-2f1b373930d6</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>奇华顿突发环境应急预案_Formal.pdf</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>4f164aea-2dd9-4f64-9710-2749e79cfd88</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>环境应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>da2a782c-7aad-4a87-a6d4-cb4088415540</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>强生医疗_突发环境事件应急预案 备案稿.pdf</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>c961f2e0-a00a-424b-806a-db112a97b9af</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>强生(中国)综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>8cd56eba-9a76-4ea3-a358-e0a778b01e52</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>乔山环境污染应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>d22645c7-769b-448c-8348-853fb73d4e87</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>危险化学品事故应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>e083681f-8c2f-4d66-b9e4-89427d13e6f9</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>乔山健身器材（上海）有限公司安全生产事故综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>d37e89ee-a0f8-4ce2-b808-eeebb0086c7a</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>【2-1】乔山-环境【综合】应急预案（提交稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>df0e9080-aaef-4bc9-a29f-a5e6645c849a</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>【2-2】乔山-环境【专项】应急预案（提交稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4907b5a2-405c-4b24-b368-d85c62686378</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>【2-3】乔山-环境【现场】应急处置预案（提交稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ba83dd8c-3171-49ec-b383-c4029685d114</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2018年青岛啤酒松江公司环保应急预案新编.pdf</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2fb2a931-7c80-43cc-9448-b32eb86ecebf</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>闵行啤酒厂突发环境事件风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>c3c9e922-80a2-4df3-b499-e52f482797d0</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>商榻污水处理厂环境污染突发事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>9de9c308-a0c0-4584-8d4d-5a16833fbfe3</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>商榻污水处理厂环境污染突发事件应急预案2.pdf</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>c95f9358-f9bb-47b1-ac37-d3020a455581</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>商榻污水处理厂环境污染突发事件应急预案3.pdf</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>aa686d28-3182-4eb1-b24c-0e5427793726</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>商榻污水处理厂环境污染突发事件应急预案4.pdf</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>aa636f45-9c5a-4914-879e-2da5793ba29a</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>确信乐思化学（上海）有限公司环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>7b52943a-da31-4efc-aa1f-095af39dbd57</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2-日东电工-突发环境事件应急预案报告.pdf</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>02f161b6-c549-43e1-ab1a-db593b7d8f8c</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>突发环境事件综合应急预案-日铭.pdf</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>5b96c18a-7fcf-4a40-8633-81d06c0e294a</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>0应急预案-日乃本五金塑料制品（上海）有限公司.pdf</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>3fc161f3-bc24-414e-9b99-d6c77c9c</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>日乃本 突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>dd615eb1-cf0d-4231-b33c-4fcd05460d6d</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>日沛環保應急預案 2017.pdf</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ed541e1e-cc98-4885-b1bb-68d33cb5</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>02日沛电脑配件（上海）有限公司应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>e5768ef0-0392-41d0-843d-258a864d2934</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>日泰应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>986e0c6f-6d87-4c19-b6b7-3c3e5684c6be</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>201902184</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>日腾电脑配件（上海）有限公司突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>855676eb-299c-4bd5-b567-9eb0a341809b</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>201902184</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>日腾电脑配件（上海）有限公司突发环境事件风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>24321631-4bae-4234-891d-8d5f4e3925f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>201902184</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>日腾电脑配件（上海）有限公司突发环境事件应急资源调查报告.pdf</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>23262efd-516b-4a5a-8d83-a1bacaace882</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>日月光应急预案3.pdf</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>d47b3a02-fae4-4093-a996-2baab665</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1322</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>日月光应急预案final.pdf</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>6d773edc-51fb-4970-b612-deb09f72db57</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1322</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>3 综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>6fa4b368-3e4b-428a-a00d-9130ec589c22</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>201902185</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>8fe173a4-c55f-42c2-a2ee-7507169f5ac5</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2.2三井高科技（上海）有限公司突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>791c73d5-dc42-4c8c-9a37-13392826</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>201902145</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>09 三井化学功能复合塑料（上海）有限公司突发环境事件应急预案（函审修改稿） 签字版.pdf</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>936e2a89-dff1-46a2-9351-3385238797ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>危险废物应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>8d7783be-de23-48a4-9a35-67f3672f6684</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. 三菱瓦斯-突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>c4b9aa51-33b0-47bb-b615-cbf4be5f9fd6</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2. 三菱瓦斯-突发环境事件专项应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>bb88bcac-df62-42bb-9371-ceacc7f06aae</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>3. 三菱瓦斯-突发环境事件现场处置应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1ea74740-2698-4df1-a853-854fd267735c</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>201904072</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案备案登记表--法拉第路249号8幢.pdf</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ec4338ae-079f-44ba-b213-e5aa8bf00af0</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2-1森蓝综合预案.pdf</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>60418c7b-6dde-4fd1-bab5-f0f631563ab2</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>202002003</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>01 ABB-风险评估报告0918.pdf</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>84c753e5-2623-4833-8ba5-3955d2a34f18</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>202002003</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>02-突发环境事件应急预案_0918.pdf</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>47727915-501b-4e1e-93fd-e56339b56037</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>201902101</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>6c8bd22c-b14d-45f8-8db2-1a178c19bf02</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>202004009</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2+环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>47cc8a19-c54d-47bb-8d41-4efac6d64b8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>甲醇储罐现场处置预案 第2版.pdf</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>4b25d49c-cd52-4d39-82dd-15661bbf4150</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>双氧水公司 化学品泄漏预案 第2版.pdf</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>804aed24-e237-41f3-9772-8610c631db25</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>上海阿科玛双氧水有限公司环境综合应急预案 第2版.pdf</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>dad24cb7-55e1-45bd-a04a-ba99e13d47c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>双氧水公司火灾爆炸和事故废水专项应急预案 第2版.pdf</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>b11bebbc-c216-4f0d-b906-b454712a2b99</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>污水处理站事故 现场处置预案 第2版.pdf</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>9bf53c9b-314f-49d1-9664-00b8bbf8f2f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>废气处理设施故障现场处置 第2版.pdf</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>650e1e71-af56-4bb0-93b4-0b11e2e24119</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>危废暂存间现场处置预案 第2版.pdf</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>c3a00066-225b-4cd7-91a3-6e3d17ed31ce</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>双氧水罐区 现场处置预案 第2版.pdf</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>d30b27e8-f607-490a-be39-91c7913d6d42</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>201902186</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>危险废物应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>35376810-fedd-4910-bd6f-fa44069c2f92</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>201902063</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>上海爱普植物科技有限公司--应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>8d1e904d-abd7-4cbd-aa43-7962dd83df8b</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>上海爱森环保应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>6dfe458f-42d8-47e5-9a9a-3b9b3e431ad5</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>201902281</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>环保应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>c23c0967-3e0b-45d6-b6c3-ce404fc8ed7f</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>上海爱茵康畜禽养殖场应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2d300156-628f-4dbc-88a1-ce14dab6568b</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>上海安美特铝业有限公司突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>15f5d773-010b-4b3b-b4e2-4e3880ba1093</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>004安泰废水处理系统专项应急预案（20171212）.pdf</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>eb1705f1-3ee2-4003-8ed8-81bd34fbdc71</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>微信图片_20180530111607.jpg</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>e6219e62-60af-4416-bfb7-eba46734a343</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>10火灾、爆炸事故应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>0cfecfd6-8d40-4e27-aa9c-3c51c172cf49</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>11人身伤亡事故应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>eaecb5b5-d014-4b3d-a455-60e4b473c4b8</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>3危险化学品泄漏事故应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>70e07c94-21e0-40eb-9799-d78b5b24b030</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>4触电事故应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>15625fa4-a3a0-43aa-b662-4bb636a3d676</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>5停电应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>a1cd77f9-1bb4-4778-b404-cafaf943eea2</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>6反恐维稳应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>20d38b3d-a074-4bba-b189-0505e9ef6ac3</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>8防汛防台应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>e3b3dbc3-afbe-4f99-8857-379dfe3b9a4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>9突发性地质灾害应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>f1a06fe6-889a-4808-97c5-072cea844f33</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>7主要设备突发事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>a3997654-1963-4c56-845b-7c77466fa83a</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1进出水水质、水量超标应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>ee90a68c-1c68-4ee0-aa61-25f67d584f01</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2环境污染事故应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>021928d6-2808-41dc-ad0a-8677ad942505</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2-安亭污水厂突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>ef7652d2-872a-4495-a2cd-56e121e49b5b</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>201902209</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>应急预案备案登记表.pdf</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>0076881d-fea7-4d0f-af51-db98c30b39ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2057</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>5 突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>13fa3ba5-611c-44d0-8822-4aa881461b96</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>环境应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1323dd39-733c-4ed9-9e7c-cb461ec95bb6</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>巴斯夫聚氨酯突发环境事件应急预案（最终版简本）.pdf</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>43dceb50-a759-4585-8eee-48364587</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>百洛达突发环境应急预案公开.pdf</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>9c7377f3-fe0c-42e4-84f0-61ea25d8e6bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>201902079</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>上海百烁金属制品有限公司综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>f31688b9-7133-4b84-9a8b-5de94b422c34</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1-上海半图油库有限公司风险评估报告20180112.pdf</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>dfa1b419-d9b6-4633-9bb9-0b718bb1a5b7</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2-上海半图油库有限公司突发环境事件综合应急预案20180112.pdf</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>68e85f0f-69a2-45ea-8fd8-b5826b9665fd</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>3-上海半图油库有限公司应急资源调查报告20180112.pdf</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>4f783eaa-d37f-44ab-a924-39ec39d56a7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>4-上海半图油库有限公司储罐区现场应急处置预案20180112.pdf</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>f5286c6c-b6a5-488b-8942-d1338110b4dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>5-上海半图油库有限公司发油平台现场应急处置预案20180112.pdf</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>033fa0a3-2411-424a-a9a3-4345d07f97ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>5-上海半图油库有限公司发油平台现场应急处置预案20180112.pdf</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>74f851d3-e1c6-447c-b306-53bec8d7ee8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>6-上海半图油库有限公司码头现场处置预案20180112.pdf</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>ba9a1573-bc35-439e-a769-0ef4450eef1e</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>7-上海半图油库有限公司突发环境事件应急预案附件材料20180112.pdf</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2842bc74-b176-4272-96ef-dd79ad01635f</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>a上海半图油库有限公司应急预案编制说明0112.pdf</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>35e7236c-9756-4027-8e65-e9112f62f43b</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>b半图油库-应急预案评审会专家组意见修改说明_0112.pdf</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>ee9528fa-f8cd-4a91-ba7b-9d37faf87f63</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>c半图油库专家评审意见签字2018-1-5.pdf</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>576dd933-cae2-4017-9143-6d7ae538fcd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>d-企业事业单位环境应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>cd8e9b4c-fe27-4e76-8ff8-b9ffcc79acfc</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>201902071</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>环保应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>e592012e-d613-4ebe-a254-6a52f7a71662</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1047</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2018【保立佳】环境综合应急预案--备案--0405.pdf</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>f3a8303c-eda4-4969-ad01-4d6418d6c2f1</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2、应急预案-上海宝敦金属表面处理厂（普通合伙）.pdf</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>fb37aa70-0a4e-4067-bd05-3766c09629c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>201904069</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>环境突发事件应急预案备案.pdf</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>1e272144-3940-4b8c-ae0c-c10764fc88bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1-0应急预案报告-宝钢车轮.pdf</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>a0d4b62b-99f0-4f6d-b1d8-971aa965b76c</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>201904068</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>01 上海宝钢磁业有限公司盛旦环保科技分公司突发环境事件风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>745335e0-061b-4366-9a13-6b328a0c1a4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>201904068</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>02 上海宝钢磁业有限公司盛旦环保科技分公司突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>1ce680d5-92c6-4d2f-bcb9-7e3129621ffb</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>201904068</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>02-1 上海宝钢磁业有限公司盛旦环保科技分公司突发环境事件危险废物贮存仓库现场应急处置预案.pdf</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>11f7fd7f-8e7b-47f4-9dc5-45073c42546b</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>201904068</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>03 上海宝钢磁业有限公司盛旦环保科技分公司环境应急资源调查报告.pdf</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>690c654f-a3c0-4249-bc36-0c008a349c0f</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>201904068</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>04 上海宝钢磁业有限公司盛旦环保科技分公司突发环境事件应急预案编制说明.pdf</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>cf3f0219-1d4e-4d0e-ab49-11487b4fa99d</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2 上海宝钢工业技术服务有限公司机械制造分公司突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>1ca68ab2-4a0d-4cc7-9775-10181a4e1762</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>宝钢化工环境综合应急预案（评审稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>acc5b8e3-f53c-4fef-9648-9f6423c6</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>宝武炭材料有限公司综合应急预案 (评审稿).pdf</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>94e285c0-ee41-47b1-9b02-3c5a68f3c2cd</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>BGJCBT-21110-D应对环境重污染应急预案(1).pdf</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>efc7cc84-5a23-4a85-bbc3-b5e634d1823d</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>宝菱综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>4b1ef215-f5fd-4fa2-93a7-e4d52dea183a</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>5.1危化品仓库现场处置应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>5b4dfd5a-0d0a-4d38-baf9-ae3442e696f7</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>5.2喷涂车间现场处置应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>ce808c76-d4bc-414f-a4c8-71fce9b2ba50</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>5.3危废仓库现场处置应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>1787c118-a9d6-4467-a56e-ac28eec47653</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>6.1火灾突发环境事件专项预案.pdf</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>aa58f22b-cbad-4153-bb3c-6c98e30f03fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>6.2化学品泄漏突发环境事件专项预案.pdf</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>fc99aa7f-ebcb-4f61-9d13-24c74677261c</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>宝强-应急预案（修改）.pdf</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>433b0e9d-5d00-4ddf-ae7a-c65e1d713e16</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>预案.pdf</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>f3d801ff-d12b-456c-938c-40472d737084</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>BGJCBT-21110-D应对环境重污染应急预案(1).pdf</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>d7de614b-e51e-4bcd-bd70-410bae9e79d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-08 宝翼制罐燃气泄漏应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>5b16e5ba-08ce-4542-8990-5abb1b82e2f3</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-16 污水处理应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>bfd470cf-6378-43cb-becd-d47c67e46113</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-17 宝翼危险废物废气规范化管理应急预案1.pdf</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>3a5af276-8f7d-404f-81e2-1ef7635ceca0</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-02危险化学品泄露应急预案(1).pdf</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>cc3edc5f-c807-4371-b52d-acef99819c88</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-14 环境治理应急相应机制.pdf</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>6d6ed7af-0adc-4a8b-a29c-7272b7b8607f</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>宝翼制罐环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>39858788-1679-458f-b675-399da7db5145</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>BGBZZG-GL-SBY-D00-89 宝翼制罐空气重污染应急方案.pdf</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>8f484f99-bc47-4bf0-ae9e-988b0c80ea0b</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-02危险化学品泄露应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>8446305a-6ceb-4693-af6e-9b4801a2a0d7</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-08 宝翼制罐燃气泄漏应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>00986826-69fc-4a61-8942-8054783552e1</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-14 环境治理应急相应机制.pdf</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>c02d05be-23f2-4cd2-ae06-a06904520862</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-16 污水处理应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>bca01cc2-afc8-4df2-aa47-9bf2ce3d2127</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-17 宝翼危险废物废气规范化管理应急预案1.pdf</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2c1ec7f4-4af0-475e-b3f6-1dbaeb8d5a39</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>SBY-GL-D00-38灾害防御与应急响应管理办法(第2版).pdf</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>69090224-d374-4e24-832f-1044c8db1b96</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>宝章应急预案2003.pdf</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>b623703e-392e-4143-9acc-c0bf1ecf3238</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>201902292</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>环境污染突发的应急顶案_20190807142122.pdf</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>b3aad5b2-0f53-4316-817f-db73d6d99a45</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1_上海北芳危险品物流有限公司综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>c7d75f8f-50ef-4cb5-b896-26da96f065a9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2 北芳 应急综合预案 v1.1.pdf</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>718667e8-aa06-4d7d-a17e-49f8f6631d5c</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>A51752BC592846DA862D4B796B45C23D</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>上海北连生物科技有限公司突发环境事件风险评估报告—11.6最终.pdf</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>3b098bdb-6d14-486c-a8c5-5834f4bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>201902077</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2-上海北杉化学有限公司-综合预案.pdf</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>fd90728f-e119-469e-8c86-abd82ecf4c22</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>201902077</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1-上海北杉化学有限公司-环境风评报告.pdf</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>84ca1315-924e-4e38-89fd-ec4c9843057d</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>201902077</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>环境应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>fbb8eb43-90e0-49dd-842d-51ed4872c072</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>201902082</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>北特突发环境事件综合应急预案0910.pdf</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>6a1b6eba-e19d-41b4-9e39-b9c012772572</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>上海比亚迪有限公司突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>53b8381e-ace2-426a-9d6d-e90396c0cd3d</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>液氨泄漏现场处置方案1.pdf</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>5324c57a-992d-4a62-93f9-06a313665915</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>01避风塘风险评估报告1017(2).pdf</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>9a1b86ea-88b2-4d43-b614-f9bfe8c7ae1e</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>02避风塘综合应急预案1017(2).pdf</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>b9e7e5d8-2862-4a2e-8902-81cb23e37538</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>上海表业有限公司电镀组突发事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>da28a89d-fc56-4087-b730-1af90bdd1964</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1338</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>应急预案现场处置方案.pdf</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>7988f928-1924-4cac-b9f1-2eac052a411c</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>201902294</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>01上海博立尔环境风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>98d291ff-d209-471d-bfae-e28bd8f7f45e</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>7095afe9-06b2-423f-844e-07ea8c8a9c44</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>伯乐电子-环境【综合】应急预案（报送版）.pdf</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>9c6fa12a-62b2-4506-bb1d-edd123bf44d5</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2017年伯乐电子环境应急预案 备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>e1531142-3db5-4eef-a94b-35b737c11ba5</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>593a1c6b-2b24-4ff5-8213-cf3c46bd3bc0</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>上海市长风畜牧场-应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>7c21026b-3c4c-4a1b-a20a-e5b3038e7456</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>上海长兴岛第二发电厂 应急预案 （2015版备案）.pdf</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>275c0a17-4120-4337-b979-755d4950</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>201902267</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>002长兴金属综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2487eaec-dd4f-4cee-956c-115c9a9d1360</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>201902267</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>001长兴金属风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>7fbbcc6e-7a54-4413-a28e-2dad1d0ace1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>上海长盈环保服务有限公司突发环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>841e2ccf-516f-40d7-8232-c7c7fa44541a</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>ASTSOPHA25火灾应急预案（A1）.pdf</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>0bd0590b-ebce-4b37-b8c8-29ec0f1e9479</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>ASTSOPQA38化学品泄漏应急预案(A0).pdf</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>f0e92a63-aa5b-4e0c-9064-b9ae7c1cf4e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>201903002</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>上海城建日沥特种沥青有限公司突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>b0f69332-63aa-4609-b80d-da30c440bcda</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>堡镇污水处理厂突发环境事件综合应急预案-2017new(1).pdf</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>c7fefe31-d258-4438-a1da-43314297a3b1</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>陈家镇污水处理厂突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>5527c9f4-798e-4f04-904c-1f4f6fc0077d</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>城桥污水处理厂突发环境事件综合应急预案-2017.pdf</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>21715e7e-a2d9-4ef3-887e-26ea417703ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>新河污水处理厂突发环境事件综合应急预案-评审版.pdf</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>4f897a96-e248-4e22-8061-d61b75888e3f</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2.环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>f3dd5ba8-da72-4c2a-aa3c-3ae2e79861de</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>新浜污水处理厂 应急预案（2016 12）.pdf</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>4c44ee57-324b-454e-9464-dfc3b548c758</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>叶榭污水处理厂 应急预案（2016 12）.pdf</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>0d4626ba-d6d9-47e7-bcee-7a84d3db2704</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>泖港污水处理厂 应急预案（2016 12）.pdf</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>069c2f91-c737-4ee2-b7df-bb6b402cdaac</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>白龙港厂突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>d327089f-547f-4e1f-bf80-a81cddd6c342</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>长兴污水处理厂2018年突发环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>d1cf100f-229b-4ebb-acc9-79fea140744a</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>长兴污水处理厂突发环境应急预案2019.pdf</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>3d1e3fb4-685f-4b61-b039-85d0d1c4f4d9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>长兴污水处理厂2020年突发环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>46164fe8-49dc-4fa6-8487-28d98fe1cb52</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>石洞口厂突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>4d121b34-9f52-4f01-b6fc-64973f45</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>上海市城投污水处理有限公司吴淞污水处理厂综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>2380921f-c7cf-4b28-8a50-469cdc60491d</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>竹园二厂污水处理 应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>51b9b9f6-a8ab-4f8e-b4fe-e69a8963</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>c415bcc8-4b65-4448-aa65-c576bdf00ed9</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1.企业事业单位环境应急预案备案表（焚烧）.pdf</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>0f3a4489-ae94-4495-935c-3b1e438a1627</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2.1综合应急预案-崇明焚烧（备案稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>ea5ba506-1c83-4c02-a35f-96fa779385fd</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2.2专项预案1化学品泄漏专项应急预案-崇明焚烧（备案稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>76f73f4f-6dff-48cf-a032-cda3f7b4eaf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2.2专项预案2火灾爆炸专项应急预案-崇明焚烧（备案稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>7be476d5-3fa9-492b-8f42-4cadf3f2607e</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2.2专项预案3烟气处理专项应急预案-崇明焚烧（备案稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>8b5233e2-fe8a-4d94-aae5-f405102aab90</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2.2专项预案4地下水污染专项应急预案-崇明焚烧（备案稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>0a6df448-c74d-4a95-9609-dc2a24a7a883</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2.3现场应急处置预案-崇明焚烧（备案稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>9837e2d4-e0b0-4e76-b951-d11823fc2ce5</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>3.突发环境事件风险评估报告-崇明焚烧(备案稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>e8fe31ca-0cf2-44cb-b6f6-bb390e9b96a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>4.环境应急资源调查报告-崇明焚烧（备案稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>39521367-1b70-49f3-b64d-025bdc4400d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>附表1崇明综合利用中心评审表（程健敏）.pdf</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>0677e983-7b56-441b-bf09-2461242908b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>附表1崇明综合利用中心评审表（李建委）.pdf</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>9c41ac10-e7c0-469a-8bb4-0f66dbff2c73</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>附表1崇明综合利用中心评审表（邹联沛）.pdf</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>99507852-e29f-46fc-a424-5da59d261dec</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>附表2崇明综合利用中心评审意见表.jpg</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>6939ff80-e458-48fd-993a-9fba2d06c6c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>附表3崇明固体废弃物综合利用中心应急预案修改说明.pdf</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>0c868362-7c40-4a71-88ff-4c541b37d245</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>会议签到表.pdf</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>9c746e65-822b-4469-94e3-8f0a4c9c756e</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>上海崇明达彬奶牛场.pdf</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>fb07c0ea-e2b1-4352-a213-4ceacf506b8f</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>201902259</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>上海崇明肉食品有限公司应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>52f19438-bccb-4dcf-93a0-6de50aea215c</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>1346</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>上海崇明县堡镇电镀厂突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>c7a6e78e-14ad-44b6-b466-16789ebb720a</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>201902288</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>上海楚艺佳有机硅材料有限公司突发环境事件应急预案 .pdf</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>4e9f5c97-2353-4d0d-983f-bff2b3b2fb08</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>楚鑫-应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>a7400a63-8b28-4c66-887c-c5c151a88637</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>上海楚鑫环保科技发展有限公司土壤隐患排查报告.pdf</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>04f007e5-079b-4589-bed6-9e8ac70a617f</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>上海创诺制药突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>d4860e39-fd40-43e7-9b3d-095dc1c4ac8b</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>上海创诺制药突发环境事件-火灾爆炸事故专项应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>fb2f74a3-f59a-4191-8b76-47d5b355c0d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>上海创诺制药突发环境事件-化学品泄漏专项应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>a01a5b3c-0535-4538-9db0-dbc733d51e25</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>201904063</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>上海春禾仓储有限公司突发环境事件专项处置预案.pdf</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>50ceef18-a391-4bb5-88a9-f95c7d8393d2</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>纺织染整突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>6e60ec8f-0a8a-4895-820d-1e3262b33281</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>14343973-f113-46b7-9c6e-4d3ade4f170a</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>上海达克罗涂覆工业有限公司-综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>87d4a063-97ff-4274-9c93-00b043ba9387</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>201902242</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>综合预案-大宝化工-报备版.pdf</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>9ec5455c-3506-4b87-8656-dc4a504707fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1.上海大桥化工有限公司综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>4f2435d5-e179-4505-a6a1-ff2394897088</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>突发事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>c0926737-e68f-4246-adbc-7238de6c08b0</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>8ae8fbbd-ec79-45c5-b00a-3385fd614957</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>大众污水处理厂应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>d76166f0-d37f-4621-a8c8-e1451203f7d0</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2上海嘉定大众污水处理有限公司突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>065f4b6a-7225-4f01-a195-e2b0a39577d5</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>3AABA6BFDE6D432D91CC5EEB22E289A0</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>ESCSCFW-AA-YX-003空气重污染应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>f952af8f-a0b1-489d-b929-857bf4f51110</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>1353</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>02大闵镀锌有限公司--突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>0f8faedf-1468-4c10-8da4-916f5c24a9be</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>201902103</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>应急预案-丹佛斯0726.pdf</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>218348dc-2756-43d8-8142-0ee9d18f841f</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>201902103</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2-上海丹佛斯液压传动有限公司突发环境事件应急预案(5).pdf</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>91e0b5fe-6996-470f-b42d-1d6f4ff6bb65</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>201902058</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>207f5d9c-641c-4ad5-a853-3226879b0ba2</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>SHDI-EP4701《应急准备与响应程序》8-3（1201）.pdf</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>94d974eb-d7e9-4d2d-a6e5-f3bb32d267af</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>3. 第一精工白云路 突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>64afdb93-737c-4fd3-9fa5-a3bd81116b4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>4. 第一精工北斗路 综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>c13fbd55-e5b0-43c3-929d-1ce6ee99f336</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2、罗泾电厂综合应急预案（修改稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>e8281c5f-1163-4796-abf6-2c92f44a0bd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>3、罗泾电厂酸碱泄漏现场处置方案（修改稿）.pdf</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>045e7fb3-d4af-4941-b957-9154fd020299</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>吴泾热电应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>cd9f614b-3079-492c-879d-f62c98f783ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>吴泾热电突发环境事件应急预案2019版.pdf</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>9fd6ccc3-3e2e-40ab-9b03-4269f9d2dbdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>人民电器厂应急预案终稿.pdf</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>f6ba14dc-ba2e-4bcc-8240-b1adf29451c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>环保应急救援预案(2017).pdf</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>89518a38-91c7-489c-b2b1-53742225dd88</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>公司突发环境事件应急预案(最新).pdf</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>f8d62f73-f16b-4cf6-96ef-2ca091c7dc4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>201902105</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>01SENE(SE)17004  突发环境污染事件综合应急预案（SENE）.pdf</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>b30093e8-2f10-4534-83b8-ab4a6f2844ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>97180da1-1e4a-4de4-954e-590cf299d213</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>上重铸锻有限公司突发环境事件风险评估.pdf</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>8f785f7d-4c3f-4c2c-bdf3-ec5fa123720a</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>上海电气上重铸锻有限公司丙烷房现场处置预案.pdf</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>cba7b4fc-87d4-444a-89aa-ded23af7abe4</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>上重铸锻有限公司火灾爆炸及事故废水专项应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>895640ef-f7a9-4b57-965d-b5c66d34fe17</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>上重铸锻有限公司突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>e4191157-aa98-46c9-b4da-d4ef371feb23</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>上重铸锻有限公司危险化学品泄漏事故专项应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>0ffe8556-4186-4ccd-b94b-5e703616e5b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2上海电子废弃物交投中心有限公司应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>c992b1cb-a981-49fb-b420-bd3cfc0d</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1上海顶盛食品工业有限公司- 风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>1c748c5d-b305-445b-9b01-50cb8d259b55</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2-上海顶盛食品工业有限公司-综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>17ce568f-9219-4d33-9bd4-276468ad8f02</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>3上海市企业风险物质调查表.pdf</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>e5b460fb-f2f9-4efc-99f2-487ced9504bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>4.环境应急资源调查报告.pdf</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>1b43a453-afd7-4465-9bdb-f9a5024cf8e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>5 突发环境事件应急预案编制说明.pdf</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>7c7c8f28-6d78-4742-a3bc-7d61b06e48e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>6附图.pdf</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>5ab357f4-7669-4536-9495-523d48d5521d</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>7附件.pdf</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>d963f60b-aa5e-4cfc-b903-4f9603dcb07a</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>鼎虹应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>82e06860-8fcd-4443-9f04-eb71c24e45da</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>上海鼎虹电子有限公司企业环境风险信息调查表.pdf</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>b0f72b36-d653-4cb4-8f55-0d14055d1cef</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>上海鼎虹电子有限公司应急物资调查.pdf</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>ff039271-277a-4228-8062-47e8d7b12564</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>上海鼎虹电子有限公司现场应急处置预案.pdf</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>1193cee7-47b4-487c-bcb2-d4cb12c83d08</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>上海鼎虹电子有限公司突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>9c1993fa-7cce-4b6a-bfb4-484d7250f729</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>上海鼎虹电子有限公司突发环境事件风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>f74f35ad-f9d7-4420-98cd-06886436eefc</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>上海鼎虹电子有限公司预案编制说明.pdf</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>1372b41d-bccc-4d2f-817f-88da4f39d404</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>4、东大化学-现场处置方案.pdf</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>6d786468-bd9e-485b-85bf-5f1ecaa83f15</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2、东大化学-综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>c5defe5b-ac33-4547-a89d-4e1d51b2cc62</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>3、东大化学-专项应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>a6f34318-cb7d-44d2-94d6-4a39e336df2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>上海东方罗门哈斯有限公司突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>48950521-991a-4216-8777-3ccf0a3f0955</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>201902149</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2-上海东方雨虹防水技术有限责任公司突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>f84801bf-ca5f-447e-b76e-2441ea81c9cb</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>环境风险信息调查表.pdf</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>8f9ea68e-5ed5-4091-be59-36975f294c80</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>企业事业单位环境应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>60f7edba-22e0-425c-9d8b-178edb22358e</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>突发环境事件风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>f2acf02d-f475-4f4c-b4e0-93ab5cc02743</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>环境应急资源调查报告.pdf</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>b10df7ec-7fea-46aa-acfa-034e70695c38</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案1.pdf</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>c1839a80-3ede-4c4c-853f-0b642338090d</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案2.pdf</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>870a34d1-fa13-41b3-b1e8-b8f03ee8fa89</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>东龙应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>b37d3a88-f659-4dcd-8987-d02575a3be47</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>应急预案备案表 (1).jpg</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>8c023533-8f59-4f37-87e0-dedc41d1054b</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>奉贤垃圾末端处理环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>516100e5-e3ff-4fe2-8b0e-577ed60e0abd</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>应急预案备案.PDF</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>60616926-7c60-444d-86b1-0510c07deffe</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>应急预案备案表2019.PDF</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>1e395226-bc7b-4462-88af-9b8867c063f3</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>上海东洋电装有限公司-综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>b11754d4-3172-4a63-9f8a-4e2964861b64</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1上海东洋油墨环境现场处置方案(评审后修改).pdf</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>ea13c218-0681-419f-a140-7ee94de153bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2上海东洋油墨环境专项预案（评审后修改）.pdf</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>3e86cdb9-2e0b-4be1-a68d-d44623a94d58</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>4东洋油墨突发环境事件风险评估(评审后修改).pdf</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>5eca93e1-b958-456a-af2a-85aaf1d5aa79</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>3东洋油墨综合应急预案(评审后修改).pdf</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>af2d4be9-cdaa-41fa-8af5-a3b3196089ff</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2-1突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>ddb621b7-c2ef-46c8-9652-607a4642</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1-应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>db7d078f-ac7b-4541-88ae-f41a6d53</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2-1突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>e98d45e6-8541-41b6-82fa-6966d39c</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>afe87590-2834-4e10-bcbd-8f4f4016</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2019应急预案备案登记表.pdf</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>b567dcfb-351a-42fc-afcd-d84dcb7742e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>03上海杜邦农化有限公司突发环境事件应急预案（备案).pdf</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>fdc806bb-0dff-4d8a-8d42-d88e2f07efe4</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2上海恩超环保科技有限公司环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>a7f1bc2f-fdf0-4b5f-8514-708c075004f7</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>恩超环境应急预案回顾评估0507.pdf</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>5d942344-7b29-4b47-9c43-38b9c4a210a6</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>cf18287f-8ae2-4932-aa21-1f7923cc6df5</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>儿童医学中心污水处理应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>a7d2f3cd-33b0-40d6-93b1-d9008e2e2986</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>新文档 2019-06-19 08.17.44.pdf</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>5d14d989-ab4e-4926-a507-91c2fa67fd3f</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>新文档 2019-06-19 09.30.15.pdf</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>c04ca644-3f35-4e24-9ac8-356ba09aaf7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>新文档 2019-06-19 09.30.47.pdf</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>6c340eef-e698-4ef8-b8a6-ec0521fb3846</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>新文档 2019-06-19 09.31.46.pdf</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>3a471783-3513-458f-ba3e-07bea86e89c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>新文档 2019-06-19 09.32.33.pdf</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>a685231e-9232-41de-b60c-a38b4c506498</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>上海飞机制造有限公司危废仓库突发事故现场处置预案.pdf</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>416b29d7-ed17-4071-83ad-5e7009331597</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>上海飞机制造有限公司突发环境事件综合应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>fc107188-1699-42bd-aefe-65fe9a6e2f8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>上海飞机制造有限公司突发环境事件风险评估报告.pdf</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>69e3004b-8fef-4635-ada9-f37acbe3da48</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案备案表(大场).pdf</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>3f4347d8-c0e4-4965-89ca-2862f8e49cd9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>上海飞机制造有限公司应急资源调查报告.pdf</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>f7894224-8b7f-461e-a14c-9ea4d9368f0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>上海飞机制造有限公司热表处理车间突发事故现场处置预案.pdf</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>48922e3f-5173-4605-83b9-a2d6e2921bf0</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>上海飞机制造有限公司化学品仓库突发事故现场处置预案.pdf</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>80031e0a-721c-4efb-ab9c-d8c6cf8d1ceb</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2、上海沸莱德表面处理有限公司突发环境事件综合应急预案 - 副本.pdf</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>249de3c2-8858-4ace-82e9-961a05910ae7</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>201902187</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>《应急预案》（黑白双面1份）上海丰丽集团有限公司2017.09.10(1).pdf</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>ca844a6b-6f51-4434-98e7-e46b7c08e519</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>环境应急预案备案表.pdf</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>714a6492-751c-40c0-98b9-d5617bcda5f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>突发事件应急处理预案.pdf</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>3e1de93d-3d25-4988-8ee0-13eb5c732e30</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>上海奉贤燃机发电有限公司--突发事件环境风险评估预案+监测报告123.pdf</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>0c7d3777-c807-4fdd-a7d6-24770ffa6ebb</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>突发环境事件应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>ae2ac93d-7bd4-4c96-9ba3-d68f43fe780b</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>废水应急方案.pdf</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>6cd89aa9-e7c6-476d-b4a2-1df2c50cc3e8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>环境应急预案备案表.jpg</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>9b0ebb7a-6e3c-41e6-a58e-9ae64f68a133</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2.2抚佳专项应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>507bc150-95e1-48da-bed4-798a48d48383</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2.3现场处置方案.pdf</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>43510b76-2db1-4628-ba45-4931bcd991c3</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2.4抚佳突发环境事件应急预案编制说明.pdf</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>2b65808c-0377-48e2-9d33-09ecd544b89a</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2.1抚佳环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>49b43443-8916-49f3-ae6a-3b31a195d0f4</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>1069</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>f2bf13b5-c7e5-458f-9de4-b4f57e614e02</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>201902086</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>上海富锋电器制品有限公司应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>1ffac037-52f2-4ab7-8563-fc3d5e43e70d</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>污水处理应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>624bfc47-904c-4c80-b8d4-853c54e667c3</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>刚立综合应急预案初稿.pdf</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>655128e4-4c18-4e7e-aa5d-69d615ef14cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>201902107</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>090510030319_004突发环境事件应急预案2018.pdf</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>c4be6205-b5a4-4e03-bee4-d032d665af5b</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>应急预案-上海高强度螺栓厂有限公司.pdf</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>db273351-1e95-48a3-8d2e-ff6e90863d04</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>201902108</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>突发环境事故应急预案备案.pdf</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>6570e811-57d5-489f-a63b-e30b8071b90e</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>1376</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>上海高士线业突发环境事件应急预案 2018.pdf</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>1bc3bf46-6a31-4319-a867-34d63a1c0a1f</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>201902238</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>突发环境应急预案.pdf</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>1892bbaa-279e-48d5-90f4-9a81c6dd1885</t>
         </is>
       </c>
     </row>
